--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -62125,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>1</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -58873,7 +58873,9 @@
       <c r="P1102" t="n">
         <v>0</v>
       </c>
-      <c r="Q1102" t="inlineStr"/>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -62237,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1103"/>
+  <dimension ref="A1:R1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62241,6 +62241,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>921.1500244140625</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>911.2999877929688</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>936.9000244140625</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>936.9000244140625</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>11608236</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>936</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>949.4000244140625</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>915.2999877929688</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>12035991</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1105"/>
+  <dimension ref="A1:R1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -62173,7 +62173,7 @@
         <v>23</v>
       </c>
       <c r="O1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1102" t="n">
         <v>0</v>
@@ -62293,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62347,7 +62349,333 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>935</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>959.4000244140625</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>931.5999755859375</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>946.6345825195312</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>8835886</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>955.9000244140625</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>955.9000244140625</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>915.4500122070312</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>934.4000244140625</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>927.1373291015625</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>8390644</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>937.9500122070312</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>939.3499755859375</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>886.5499877929688</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>889.4500122070312</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>889.4500122070312</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>7594601</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>875.5</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>908.7999877929688</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>862.4000244140625</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>900.5499877929688</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>900.5499877929688</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>9578480</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>957.9500122070312</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>890.1500244140625</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>899.5499877929688</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>899.5499877929688</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>12107641</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>884</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>914.75</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>854.1500244140625</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>905.0999755859375</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>905.0999755859375</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>13505972</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
+++ b/stock_historical_data/1wk/JSWSTEEL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1111"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -62405,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62459,7 +62461,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62513,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>1</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62567,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62621,7 +62629,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62667,7 +62677,7 @@
         <v>32</v>
       </c>
       <c r="O1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1111" t="n">
         <v>0</v>
@@ -62675,7 +62685,1725 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>904.7999877929688</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>927.5</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>882.5499877929688</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>908.4500122070312</v>
+      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="n">
+        <v>9385613</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>943.9500122070312</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>903.9000244140625</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>941.0499877929688</v>
+      </c>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="n">
+        <v>5659218</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>945.5</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>930.7999877929688</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="n">
+        <v>12260446</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>951.4500122070312</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="n">
+        <v>8920549</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>923</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>972.4500122070312</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>919.0499877929688</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>954.5499877929688</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>9775828</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>961.4000244140625</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>988</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>944</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>981.5499877929688</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>12688625</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>986</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>1018.900024414062</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>972.7000122070312</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>14033454</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>1033.75</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>17114566</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>984</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>12289747</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>969.75</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>992.5999755859375</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>6895225</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>997</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>926.7999877929688</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>6769477</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>936</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>978</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>909</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>968.2999877929688</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>5086276</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>965.0499877929688</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>1018.950012207031</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>941.0999755859375</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>996.4000244140625</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>14942574</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>988</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>995.4500122070312</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>928.0499877929688</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>939.0499877929688</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>4898241</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>935.0499877929688</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>981.2999877929688</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>934.9000244140625</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>977.3499755859375</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>5320404</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>980.4500122070312</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>945.6500244140625</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>966</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>11360662</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>965.9000244140625</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>961.75</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>1003.799987792969</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>7863515</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>1023.5</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>973.0499877929688</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>999.8499755859375</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>8885813</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>1006.299987792969</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>912.0499877929688</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>917.3499755859375</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>35435766</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>936</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>950.9500122070312</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>911.25</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>913.2999877929688</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>10010433</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>913.2999877929688</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>924.7000122070312</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>890.7000122070312</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>915.0499877929688</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>8339226</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>915.0499877929688</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>919.8499755859375</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>880.25</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>900.0999755859375</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>5611200</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>895.9500122070312</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>880</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>908.5999755859375</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>7804524</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>908.5999755859375</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>953</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>932.4500122070312</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>8661359</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>901.0999755859375</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>959.9000244140625</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>901.0999755859375</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>934.25</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>11704982</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>915</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>914</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>980.75</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>9508858</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>974</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>984</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>964.5999755859375</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>11074242</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>964.5999755859375</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>990.9500122070312</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>954.0999755859375</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>981.9000244140625</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>7776630</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>971</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>984.9000244140625</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>940.5499877929688</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>950.7000122070312</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>7598001</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>959</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>1020.400024414062</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>953</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>1011.150024414062</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>8257347</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>1011.150024414062</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>1032.75</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>994.0999755859375</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>5932652</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1007.549987792969</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>1062.550048828125</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>1000.150024414062</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>1058.699951171875</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>9106750</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1063.199951171875</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>9281692</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
